--- a/data/trans_dic/IP09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,63%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>16,02%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,25; 49,7</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 42,36</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,97; 59,58</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,29; 60,11</t>
+          <t>0,0; 79,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 46,97</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 52,11</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,67; 57,07</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,89; 70,14</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 42,57</t>
+          <t>0,0; 84,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,39; 43,13</t>
+          <t>0,0; 59,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,19; 53,62</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,87; 56,78</t>
+          <t>0,0; 62,85</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>36,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>53,44%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>43,0%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,74; 53,42</t>
+          <t>21,25; 49,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,36; 46,49</t>
+          <t>14,06; 42,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,22; 78,4</t>
+          <t>23,97; 59,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,32; 42,89</t>
+          <t>27,29; 60,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 26,15</t>
+          <t>12,11; 46,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,08; 42,11</t>
+          <t>24,58; 52,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,75; 74,69</t>
+          <t>22,67; 57,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,99; 52,07</t>
+          <t>22,89; 70,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 35,35</t>
+          <t>19,73; 42,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 39,45</t>
+          <t>23,39; 43,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,07; 69,54</t>
+          <t>28,19; 53,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,36; 39,91</t>
+          <t>28,87; 56,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>32,03%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>4,6; 35,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>24,53; 55,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>24,19; 72,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,15</t>
+          <t>13,0; 53,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>15,76; 70,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>22,22; 57,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>12,46; 59,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>14,13; 55,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,59</t>
+          <t>11,65; 41,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,55</t>
+          <t>28,52; 51,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>24,83; 58,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,85</t>
+          <t>18,76; 48,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>53,44%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>27,8%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 35,43</t>
+          <t>20,74; 53,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,53; 55,26</t>
+          <t>17,36; 46,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,19; 72,2</t>
+          <t>32,22; 78,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,0; 53,13</t>
+          <t>14,32; 42,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,76; 70,59</t>
+          <t>3,08; 26,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,22; 57,15</t>
+          <t>10,08; 42,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,46; 59,44</t>
+          <t>22,75; 74,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,13; 55,38</t>
+          <t>13,99; 52,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,65; 41,21</t>
+          <t>14,68; 35,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,52; 51,55</t>
+          <t>18,29; 39,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,83; 58,11</t>
+          <t>33,07; 69,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,76; 48,99</t>
+          <t>17,36; 39,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,59</t>
+          <t>0,0; 87,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,55</t>
+          <t>0,0; 49,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 43,32</t>
+          <t>8,03; 41,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,18; 74,33</t>
+          <t>27,19; 74,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,96; 76,32</t>
+          <t>24,4; 76,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 50,78</t>
+          <t>4,24; 50,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 61,69</t>
+          <t>8,15; 60,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 67,98</t>
+          <t>19,58; 68,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 88,6</t>
+          <t>20,83; 80,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,75; 63,51</t>
+          <t>16,4; 65,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 39,53</t>
+          <t>11,29; 38,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,86; 64,36</t>
+          <t>28,84; 63,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,25; 72,59</t>
+          <t>32,12; 72,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 48,14</t>
+          <t>12,05; 49,43</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,25; 49,7</t>
+          <t>20,84; 47,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,06; 42,36</t>
+          <t>16,28; 43,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,97; 59,58</t>
+          <t>22,14; 59,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,29; 60,11</t>
+          <t>26,43; 59,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 46,97</t>
+          <t>12,16; 48,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,58; 52,11</t>
+          <t>23,26; 51,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,67; 57,07</t>
+          <t>23,83; 58,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,89; 70,14</t>
+          <t>23,47; 67,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 42,57</t>
+          <t>21,0; 42,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,39; 43,13</t>
+          <t>22,99; 43,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,19; 53,62</t>
+          <t>26,0; 52,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,87; 56,78</t>
+          <t>30,53; 57,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 35,43</t>
+          <t>4,29; 34,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,53; 55,26</t>
+          <t>25,22; 55,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,19; 72,2</t>
+          <t>21,03; 76,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 53,13</t>
+          <t>13,12; 53,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 70,59</t>
+          <t>15,66; 69,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,22; 57,15</t>
+          <t>22,6; 57,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 59,44</t>
+          <t>11,69; 57,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 55,38</t>
+          <t>14,54; 56,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 41,21</t>
+          <t>13,59; 41,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,52; 51,55</t>
+          <t>28,74; 52,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 58,11</t>
+          <t>23,83; 59,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,76; 48,99</t>
+          <t>18,54; 47,01</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,74; 53,42</t>
+          <t>21,2; 54,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,36; 46,49</t>
+          <t>17,87; 46,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,22; 78,4</t>
+          <t>33,38; 78,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 42,89</t>
+          <t>14,01; 43,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 26,15</t>
+          <t>3,05; 26,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,08; 42,11</t>
+          <t>9,89; 40,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,75; 74,69</t>
+          <t>24,26; 74,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,99; 52,07</t>
+          <t>12,67; 51,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 35,35</t>
+          <t>13,81; 34,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,29; 39,45</t>
+          <t>17,74; 39,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,07; 69,54</t>
+          <t>36,37; 71,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,36; 39,91</t>
+          <t>17,64; 40,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,67; 36,82</t>
+          <t>21,3; 36,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 42,65</t>
+          <t>25,55; 40,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,37; 58,14</t>
+          <t>35,08; 57,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,38; 41,43</t>
+          <t>22,22; 40,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,34; 32,43</t>
+          <t>14,66; 32,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 42,84</t>
+          <t>26,47; 43,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,68; 52,38</t>
+          <t>29,63; 52,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,22; 45,99</t>
+          <t>25,18; 48,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,95; 33,06</t>
+          <t>20,87; 32,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,93; 40,34</t>
+          <t>28,6; 39,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,85; 52,0</t>
+          <t>35,95; 52,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,25; 41,08</t>
+          <t>25,83; 40,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 87,91</t>
+          <t>0,0; 77,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,03</t>
+          <t>0,0; 50,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,85</t>
+          <t>0,0; 64,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 41,72</t>
+          <t>8,0; 41,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,19; 74,42</t>
+          <t>30,29; 75,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,4; 76,77</t>
+          <t>24,49; 77,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 50,67</t>
+          <t>5,67; 48,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 60,48</t>
+          <t>8,04; 55,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 68,56</t>
+          <t>19,55; 69,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 80,3</t>
+          <t>19,81; 79,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,4; 65,97</t>
+          <t>14,93; 63,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,29; 38,05</t>
+          <t>11,32; 39,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,84; 63,46</t>
+          <t>30,03; 64,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,12; 72,92</t>
+          <t>29,19; 72,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 49,43</t>
+          <t>10,8; 48,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 47,87</t>
+          <t>20,63; 48,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 43,98</t>
+          <t>16,07; 44,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,14; 59,39</t>
+          <t>23,86; 59,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,43; 59,83</t>
+          <t>27,06; 60,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 48,08</t>
+          <t>12,31; 50,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,26; 51,92</t>
+          <t>22,99; 51,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,83; 58,24</t>
+          <t>24,33; 58,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,47; 67,29</t>
+          <t>22,38; 69,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 42,59</t>
+          <t>20,97; 43,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 43,38</t>
+          <t>23,33; 43,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,0; 52,01</t>
+          <t>27,73; 52,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,53; 57,35</t>
+          <t>29,96; 56,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 34,97</t>
+          <t>4,28; 38,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,22; 55,79</t>
+          <t>24,3; 56,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,03; 76,62</t>
+          <t>24,95; 74,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 53,76</t>
+          <t>14,74; 55,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 69,93</t>
+          <t>15,8; 65,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 57,65</t>
+          <t>22,08; 58,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 57,24</t>
+          <t>12,27; 59,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 56,25</t>
+          <t>13,8; 57,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 41,6</t>
+          <t>11,2; 40,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,74; 52,66</t>
+          <t>28,18; 50,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 59,93</t>
+          <t>23,3; 58,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,54; 47,01</t>
+          <t>19,33; 49,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,2; 54,81</t>
+          <t>20,46; 53,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,87; 46,49</t>
+          <t>17,14; 45,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,38; 78,42</t>
+          <t>33,57; 78,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,01; 43,06</t>
+          <t>13,78; 43,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 26,69</t>
+          <t>3,06; 26,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,89; 40,99</t>
+          <t>10,06; 40,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,26; 74,92</t>
+          <t>22,62; 72,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 51,75</t>
+          <t>13,73; 52,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 34,85</t>
+          <t>14,46; 36,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,74; 39,77</t>
+          <t>17,73; 38,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,37; 71,15</t>
+          <t>36,59; 70,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,64; 40,03</t>
+          <t>18,34; 41,08</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,3; 36,81</t>
+          <t>21,16; 36,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,55; 40,8</t>
+          <t>26,45; 41,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,08; 57,74</t>
+          <t>35,12; 58,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,22; 40,9</t>
+          <t>21,99; 41,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,66; 32,42</t>
+          <t>14,4; 32,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,47; 43,01</t>
+          <t>26,54; 43,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,63; 52,87</t>
+          <t>29,06; 52,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,18; 48,09</t>
+          <t>25,34; 47,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,87; 32,33</t>
+          <t>20,71; 32,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,6; 39,6</t>
+          <t>28,24; 39,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,95; 52,23</t>
+          <t>36,49; 52,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,83; 40,25</t>
+          <t>25,71; 40,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que padecen actualmente alguna dolencia o enfermedad continuada</t>
+          <t>Menores que padecen actualmente esa dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>29,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,73%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>23,82%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>7,71; 59,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>17,54; 65,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>14,37; 72,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,15</t>
+          <t>12,63; 57,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>8,49; 45,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>19,9; 59,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>15,8; 70,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>3,35; 44,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,49</t>
+          <t>12,52; 40,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,2</t>
+          <t>24,68; 53,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>25,18; 65,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,05</t>
+          <t>8,17; 40,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>36,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,56%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>54,81%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>52,29%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>46,53%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 41,51</t>
+          <t>12,11; 46,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,29; 75,1</t>
+          <t>24,58; 52,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,49; 77,1</t>
+          <t>22,67; 57,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 48,44</t>
+          <t>23,74; 83,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 55,12</t>
+          <t>21,25; 49,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,55; 69,71</t>
+          <t>14,06; 42,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,81; 79,73</t>
+          <t>23,97; 59,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 63,94</t>
+          <t>26,99; 59,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 39,35</t>
+          <t>19,73; 42,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,03; 64,13</t>
+          <t>23,39; 43,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,19; 72,92</t>
+          <t>28,19; 53,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 48,22</t>
+          <t>32,12; 65,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,63%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>30,97%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,63; 48,02</t>
+          <t>15,76; 70,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,07; 44,36</t>
+          <t>22,22; 57,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,86; 59,66</t>
+          <t>12,46; 59,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,06; 60,38</t>
+          <t>13,53; 53,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,31; 50,25</t>
+          <t>4,6; 35,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 51,28</t>
+          <t>24,53; 55,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,33; 58,54</t>
+          <t>24,19; 72,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,38; 69,23</t>
+          <t>12,66; 52,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,97; 43,63</t>
+          <t>11,65; 41,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,33; 43,42</t>
+          <t>28,52; 51,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,73; 52,52</t>
+          <t>24,83; 58,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,96; 56,23</t>
+          <t>17,61; 47,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>53,44%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>27,77%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 38,55</t>
+          <t>3,08; 26,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,3; 56,19</t>
+          <t>10,08; 42,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,95; 74,31</t>
+          <t>22,75; 74,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 55,19</t>
+          <t>14,32; 52,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 65,35</t>
+          <t>20,74; 53,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,08; 58,22</t>
+          <t>17,36; 46,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 59,52</t>
+          <t>32,22; 78,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,8; 57,37</t>
+          <t>14,02; 43,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,2; 40,87</t>
+          <t>14,68; 35,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,18; 50,96</t>
+          <t>18,29; 39,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,3; 58,89</t>
+          <t>33,07; 69,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,33; 49,5</t>
+          <t>17,26; 40,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>46,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>53,44%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>33,06%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,46; 53,78</t>
+          <t>14,34; 32,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,14; 45,62</t>
+          <t>26,05; 42,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,57; 78,64</t>
+          <t>29,68; 52,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 43,42</t>
+          <t>26,7; 56,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 26,45</t>
+          <t>21,67; 36,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 40,41</t>
+          <t>26,05; 42,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,62; 72,67</t>
+          <t>35,37; 58,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,73; 52,98</t>
+          <t>18,61; 39,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,46; 36,14</t>
+          <t>20,95; 33,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,73; 38,56</t>
+          <t>28,93; 40,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,59; 70,97</t>
+          <t>35,85; 52,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,34; 41,08</t>
+          <t>25,71; 42,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>28,8%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>33,44%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>46,21%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>31,85%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>22,76%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>34,27%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>40,48%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>35,02%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>26,37%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>33,81%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>43,47%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>33,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>21,16; 36,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>26,45; 41,14</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>35,12; 58,5</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>21,99; 41,64</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>14,4; 32,64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>26,54; 43,41</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>29,06; 52,63</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>25,34; 47,54</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>20,71; 32,99</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>28,24; 39,57</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>36,49; 52,28</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>25,71; 40,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
